--- a/medicine/Psychotrope/Dithmarscher_Privatbrauerei/Dithmarscher_Privatbrauerei.xlsx
+++ b/medicine/Psychotrope/Dithmarscher_Privatbrauerei/Dithmarscher_Privatbrauerei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Dithmarscher Privatbrauerei Karl Hintz est une brasserie à Marne, dans le Land de Schleswig-Holstein.
@@ -512,12 +524,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une brasserie rurale est présente sur le site depuis 1775[2]. La brasserie elle-même est fondée en 1884 par Christian Hintz et reste aujourd'hui une propriété familiale. La direction de l'entreprise est confiée à un directeur externe dans les années 1990, après que la brasserie est presque devenue insolvable en raison d'une expansion trop rapide[1].
-La brasserie conserve une image associée au paysage et à la tradition de la région, d'où la décision de réintroduire le bouchon mécanique en 1983[2]. Les bières de la brasserie sont récompensées à plusieurs reprises par la Deutsche Landwirtschafts-Gesellschaft comme la Dithmarscher Pilsener en 2013.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une brasserie rurale est présente sur le site depuis 1775. La brasserie elle-même est fondée en 1884 par Christian Hintz et reste aujourd'hui une propriété familiale. La direction de l'entreprise est confiée à un directeur externe dans les années 1990, après que la brasserie est presque devenue insolvable en raison d'une expansion trop rapide.
+La brasserie conserve une image associée au paysage et à la tradition de la région, d'où la décision de réintroduire le bouchon mécanique en 1983. Les bières de la brasserie sont récompensées à plusieurs reprises par la Deutsche Landwirtschafts-Gesellschaft comme la Dithmarscher Pilsener en 2013.
 En plus des bouteilles au bouchon mécanique, la brasserie utilise aussi des Longneckflaschen et des Steinieflasche.
-La Dithmarscher Privatbrauerei est membre des Die Freien Brauer[2].
+La Dithmarscher Privatbrauerei est membre des Die Freien Brauer.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pilsener
 Dunkel
